--- a/Libro.xlsx
+++ b/Libro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerax\OneDrive\Desktop\UVGG\4-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7169CA-9FED-400E-B0EA-6FB33FF75205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518FC22F-75E7-49DE-8A3A-3312E2060C8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1C9D8E8C-B079-4C76-8691-A785CF734302}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="118">
   <si>
     <t>Valor</t>
   </si>
@@ -116,12 +116,6 @@
     <t>Municipio</t>
   </si>
   <si>
-    <t>Codigo</t>
-  </si>
-  <si>
-    <t>Codigo del minuduc</t>
-  </si>
-  <si>
     <t xml:space="preserve">Codigo </t>
   </si>
   <si>
@@ -176,15 +170,6 @@
     <t>22, 26</t>
   </si>
   <si>
-    <t>Direccion</t>
-  </si>
-  <si>
-    <t>Supervisor</t>
-  </si>
-  <si>
-    <t>Director</t>
-  </si>
-  <si>
     <t>Nivel</t>
   </si>
   <si>
@@ -206,18 +191,221 @@
     <t>Plan</t>
   </si>
   <si>
-    <t>Departamental</t>
-  </si>
-  <si>
-    <t>Telefono</t>
+    <t>Codigo asignado por el minuduc</t>
+  </si>
+  <si>
+    <t>Direccion individual de cada institucion</t>
+  </si>
+  <si>
+    <t>Supervisor de cada</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>CODIGO</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO</t>
+  </si>
+  <si>
+    <t>Departamento de Guatemala</t>
+  </si>
+  <si>
+    <t>Municipio de cada departamento de guatemala</t>
+  </si>
+  <si>
+    <t>Director de cada institucion</t>
+  </si>
+  <si>
+    <t>Variables Categoricas</t>
+  </si>
+  <si>
+    <t>Descripcion de variables</t>
+  </si>
+  <si>
+    <t>MUNICIPIO</t>
+  </si>
+  <si>
+    <t>DIRECCION</t>
+  </si>
+  <si>
+    <t>SUPERVISOR</t>
+  </si>
+  <si>
+    <t>DIRECTOR</t>
+  </si>
+  <si>
+    <t>ESTABLECIMIENTO</t>
+  </si>
+  <si>
+    <t>Nombre de cada institucion</t>
+  </si>
+  <si>
+    <t>NIVEL</t>
+  </si>
+  <si>
+    <t>Categoria del sistema educativo al que pertenece la institucion</t>
+  </si>
+  <si>
+    <t>Primaria</t>
+  </si>
+  <si>
+    <t>Parvulos</t>
+  </si>
+  <si>
+    <t>Basico</t>
+  </si>
+  <si>
+    <t>Diversificado</t>
+  </si>
+  <si>
+    <t>Preprimaria bilingüe</t>
+  </si>
+  <si>
+    <t>Inicial</t>
+  </si>
+  <si>
+    <t>Primaria de adultos</t>
+  </si>
+  <si>
+    <t>SECTOR</t>
+  </si>
+  <si>
+    <t>Tipo de gestion y financiamiento</t>
+  </si>
+  <si>
+    <t>Oficial</t>
+  </si>
+  <si>
+    <t>Privado</t>
+  </si>
+  <si>
+    <t>Cooperativo</t>
+  </si>
+  <si>
+    <t>Municipal</t>
+  </si>
+  <si>
+    <t>AREA</t>
+  </si>
+  <si>
+    <t>Clasifica la institucion por el tipo de territorio</t>
+  </si>
+  <si>
+    <t>Rural</t>
+  </si>
+  <si>
+    <t>Urbana</t>
+  </si>
+  <si>
+    <t>Abierta</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>Estado operativo de la institucion</t>
+  </si>
+  <si>
+    <t>MODALIDAD</t>
+  </si>
+  <si>
+    <t>Monolingue</t>
+  </si>
+  <si>
+    <t>Bilingüe</t>
+  </si>
+  <si>
+    <t>si enseña en un solo idioma o en dos</t>
+  </si>
+  <si>
+    <t>JORNADA</t>
+  </si>
+  <si>
+    <t>Que tipo de turno escolar se maneja en la institucion</t>
+  </si>
+  <si>
+    <t>Matutina</t>
+  </si>
+  <si>
+    <t>Vespertina</t>
+  </si>
+  <si>
+    <t>Doble</t>
+  </si>
+  <si>
+    <t>Sin Jornada</t>
+  </si>
+  <si>
+    <t>Nocturna</t>
+  </si>
+  <si>
+    <t>Intermedia</t>
+  </si>
+  <si>
+    <t>PLAN</t>
+  </si>
+  <si>
+    <t>Frecuencia y modalidad de enseñanza</t>
+  </si>
+  <si>
+    <t>Diario (Regular)</t>
+  </si>
+  <si>
+    <t>Fin de semana</t>
+  </si>
+  <si>
+    <t>Semipresencial (Fin de semana / Un dia la semana)</t>
+  </si>
+  <si>
+    <t>A distancia</t>
+  </si>
+  <si>
+    <t>Virtual</t>
+  </si>
+  <si>
+    <t>Sabatino</t>
+  </si>
+  <si>
+    <t>Dominical</t>
+  </si>
+  <si>
+    <t>Mixto</t>
+  </si>
+  <si>
+    <t>Intercalado</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTAL</t>
+  </si>
+  <si>
+    <t>Direccion Departamental de Educación a la que está adscrito el establecimiento</t>
+  </si>
+  <si>
+    <t>Deparamenta</t>
+  </si>
+  <si>
+    <t>TELEFONO</t>
+  </si>
+  <si>
+    <t>Numero de celular de la institución</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -260,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -269,9 +457,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,510 +804,1052 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3436BB-D63B-4B49-B8AF-1521E81D5BCB}">
-  <dimension ref="B2:J60"/>
+  <dimension ref="B1:I99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+      <selection activeCell="H5" sqref="H5:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="65.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="4"/>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="4"/>
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="4"/>
+      <c r="C6" s="2">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="4"/>
+      <c r="C7" s="2">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="4"/>
+      <c r="C8" s="2">
+        <v>6</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="4"/>
+      <c r="C9" s="2">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="4"/>
+      <c r="C10" s="2">
+        <v>8</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="4"/>
+      <c r="C11" s="2">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="4"/>
+      <c r="C12" s="2">
+        <v>10</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="4"/>
+      <c r="C13" s="2">
+        <v>11</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="4"/>
+      <c r="C14" s="2">
+        <v>12</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="4"/>
+      <c r="C15" s="2">
+        <v>13</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="4"/>
+      <c r="C16" s="2">
+        <v>14</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="4"/>
+      <c r="C17" s="2">
+        <v>15</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="4"/>
+      <c r="C18" s="2">
+        <v>16</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="4"/>
+      <c r="C19" s="2">
+        <v>17</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="4"/>
+      <c r="C20" s="2">
+        <v>18</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="4"/>
+      <c r="C21" s="2">
+        <v>19</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="4"/>
+      <c r="C22" s="2">
+        <v>20</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="4"/>
+      <c r="C23" s="2">
+        <v>21</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="8"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="4"/>
+      <c r="C24" s="2">
+        <v>22</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="4"/>
+      <c r="C26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="4"/>
+      <c r="C27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="4"/>
+      <c r="C28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="4"/>
+      <c r="C29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="4"/>
+      <c r="C30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="4"/>
+      <c r="C31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="4"/>
+      <c r="C32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="4"/>
+      <c r="C33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" s="4"/>
+      <c r="C34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" s="4"/>
+      <c r="C35" s="2">
+        <v>10</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="4"/>
+      <c r="C36" s="2">
+        <v>12</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37" s="4"/>
+      <c r="C37" s="2">
+        <v>13</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38" s="4"/>
+      <c r="C38" s="2">
+        <v>14</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39" s="4"/>
+      <c r="C39" s="2">
+        <v>15</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40" s="4"/>
+      <c r="C40" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41" s="4"/>
+      <c r="C41" s="2">
+        <v>17</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="4"/>
+      <c r="C42" s="2">
+        <v>18</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B43" s="4"/>
+      <c r="C43" s="2">
+        <v>19</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B44" s="4"/>
+      <c r="C44" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D44" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B45" s="4"/>
+      <c r="C45" s="2">
+        <v>21</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B46" s="4"/>
+      <c r="C46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B47" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
+      <c r="D47" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B48" s="4"/>
+      <c r="C48" s="5">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D48" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B49" s="4"/>
+      <c r="C49" s="5">
+        <v>3</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B50" s="4"/>
+      <c r="C50" s="5">
+        <v>4</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B51" s="4"/>
+      <c r="C51" s="5">
+        <v>5</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B52" s="4"/>
+      <c r="C52" s="5">
+        <v>6</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B53" s="4"/>
+      <c r="C53" s="5">
+        <v>7</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B54" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C54" s="5">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D54" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B55" s="4"/>
+      <c r="C55" s="5">
+        <v>2</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B56" s="4"/>
+      <c r="C56" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="2"/>
-      <c r="C4" s="1">
+      <c r="D56" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B57" s="4"/>
+      <c r="C57" s="5">
+        <v>4</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B58" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C58" s="5">
+        <v>1</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B59" s="4"/>
+      <c r="C59" s="5">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D59" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B60" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" s="5">
+        <v>1</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B61" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C61" s="5">
+        <v>1</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B62" s="4"/>
+      <c r="C62" s="5">
+        <v>2</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B63" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C63" s="5">
+        <v>1</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B64" s="4"/>
+      <c r="C64" s="5">
+        <v>2</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B65" s="4"/>
+      <c r="C65" s="5">
+        <v>3</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B66" s="4"/>
+      <c r="C66" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="2"/>
-      <c r="C5" s="1">
+      <c r="D66" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B67" s="4"/>
+      <c r="C67" s="5">
+        <v>5</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B68" s="4"/>
+      <c r="C68" s="5">
+        <v>6</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B69" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C69" s="5">
+        <v>1</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B70" s="4"/>
+      <c r="C70" s="5">
+        <v>2</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B71" s="4"/>
+      <c r="C71" s="5">
         <v>3</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D71" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B72" s="4"/>
+      <c r="C72" s="5">
+        <v>4</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B73" s="4"/>
+      <c r="C73" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="2"/>
-      <c r="C6" s="1">
+      <c r="D73" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B74" s="4"/>
+      <c r="C74" s="5">
+        <v>6</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B75" s="4"/>
+      <c r="C75" s="5">
+        <v>7</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B76" s="4"/>
+      <c r="C76" s="5">
+        <v>8</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B77" s="4"/>
+      <c r="C77" s="5">
+        <v>9</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B78" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C78" s="2">
+        <v>1</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B79" s="4"/>
+      <c r="C79" s="2">
+        <v>2</v>
+      </c>
+      <c r="D79" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="1" t="s">
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B80" s="4"/>
+      <c r="C80" s="2">
+        <v>3</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B81" s="4"/>
+      <c r="C81" s="2">
+        <v>4</v>
+      </c>
+      <c r="D81" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="2"/>
-      <c r="C7" s="1">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B82" s="4"/>
+      <c r="C82" s="2">
         <v>5</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D82" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="2"/>
-      <c r="C8" s="1">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B83" s="4"/>
+      <c r="C83" s="2">
         <v>6</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D83" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="2"/>
-      <c r="C9" s="1">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B84" s="4"/>
+      <c r="C84" s="2">
         <v>7</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D84" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
-      <c r="C10" s="1">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B85" s="4"/>
+      <c r="C85" s="2">
         <v>8</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D85" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="2"/>
-      <c r="C11" s="1">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B86" s="4"/>
+      <c r="C86" s="2">
         <v>9</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D86" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="2"/>
-      <c r="C12" s="1">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B87" s="4"/>
+      <c r="C87" s="2">
         <v>10</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D87" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="2"/>
-      <c r="C13" s="1">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B88" s="4"/>
+      <c r="C88" s="2">
         <v>11</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D88" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="2"/>
-      <c r="C14" s="1">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B89" s="4"/>
+      <c r="C89" s="2">
         <v>12</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D89" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="2"/>
-      <c r="C15" s="1">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B90" s="4"/>
+      <c r="C90" s="2">
         <v>13</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D90" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="2"/>
-      <c r="C16" s="1">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B91" s="4"/>
+      <c r="C91" s="2">
         <v>14</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D91" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="2"/>
-      <c r="C17" s="1">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B92" s="4"/>
+      <c r="C92" s="2">
         <v>15</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D92" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I17" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B18" s="2"/>
-      <c r="C18" s="1">
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B93" s="4"/>
+      <c r="C93" s="2">
         <v>16</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D93" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="2"/>
-      <c r="C19" s="1">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B94" s="4"/>
+      <c r="C94" s="2">
         <v>17</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D94" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="2"/>
-      <c r="C20" s="1">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B95" s="4"/>
+      <c r="C95" s="2">
         <v>18</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D95" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="2"/>
-      <c r="C21" s="1">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B96" s="4"/>
+      <c r="C96" s="2">
         <v>19</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D96" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="2"/>
-      <c r="C22" s="1">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B97" s="4"/>
+      <c r="C97" s="2">
         <v>20</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D97" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="2"/>
-      <c r="C23" s="1">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B98" s="4"/>
+      <c r="C98" s="2">
         <v>21</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D98" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="2"/>
-      <c r="C24" s="1">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B99" s="4"/>
+      <c r="C99" s="2">
         <v>22</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D99" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B26" s="2"/>
-      <c r="C26" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B27" s="2"/>
-      <c r="C27" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B28" s="2"/>
-      <c r="C28" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B29" s="2"/>
-      <c r="C29" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B30" s="2"/>
-      <c r="C30" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B31" s="2"/>
-      <c r="C31" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B32" s="2"/>
-      <c r="C32" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="2"/>
-      <c r="C33" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="2"/>
-      <c r="C34" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="2"/>
-      <c r="C35" s="3">
-        <v>10</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="2"/>
-      <c r="C36" s="3">
-        <v>12</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="2"/>
-      <c r="C37" s="3">
-        <v>13</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="2"/>
-      <c r="C38" s="3">
-        <v>14</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="2"/>
-      <c r="C39" s="3">
-        <v>15</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B40" s="2"/>
-      <c r="C40" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B41" s="2"/>
-      <c r="C41" s="3">
-        <v>17</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="2"/>
-      <c r="C42" s="3">
-        <v>18</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B43" s="2"/>
-      <c r="C43" s="3">
-        <v>19</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B44" s="2"/>
-      <c r="C44" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B45" s="2"/>
-      <c r="C45" s="3">
-        <v>21</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B46" s="2"/>
-      <c r="C46" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B50" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B52" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B53" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B54" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B56" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B57" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B58" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B59" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B60" t="s">
-        <v>26</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="11">
+    <mergeCell ref="B78:B99"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B63:B68"/>
+    <mergeCell ref="B69:B77"/>
     <mergeCell ref="B3:B24"/>
     <mergeCell ref="B25:B46"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B47:B53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
